--- a/LLM_Test/Summarised_output_new.xlsx
+++ b/LLM_Test/Summarised_output_new.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssicsync\LLM_Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE513A-6F20-44EF-B1CD-4559F5B603B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="363">
   <si>
     <t>PDF Name</t>
   </si>
@@ -37,7 +43,10 @@
     <t>Summarized_Description_philschmid_bart</t>
   </si>
   <si>
-    <t>Length of original text</t>
+    <t>Input_length</t>
+  </si>
+  <si>
+    <t>Summarised?</t>
   </si>
   <si>
     <t>ABR HOLDINGS LIMITED 2022 (197803023H).pdf</t>
@@ -814,7 +823,7 @@
     <t>The Company is engaged in the investment holding and the distribution of nutritional products across Taiwan, Singapore, Malaysia and supplement products, personal care</t>
   </si>
   <si>
-    <t>The principal activities of the Group are those relating to trading and supply of jet fuel and trading of other petroleum products, and investment holding.</t>
+    <t>The principal activities of the Group are those relating to trading and supply of jet fuel and trading of other petroleum products. The immediate and ultimate holding Company during the financial year was China National Aviation Fuel Group Limited (CNAF). CNAF</t>
   </si>
   <si>
     <t>The consolidated financial statements for the year ended 31 December 2021 show that there were a number of significant non-cash transactions in the Company's business.</t>
@@ -832,19 +841,19 @@
     <t>The Company is engaged in the manufacturing and trading of refrigeration parts, servicing of cold rooms, construction and installation of commercial and</t>
   </si>
   <si>
-    <t>The consolidated financial statements relate to the Company and its subsidiaries. The principal activities of the Company are those of manufacturing and sub-assembly of precision plastic parts and components, fabrication of precision moulds and dies, trading, providing management services and investment</t>
-  </si>
-  <si>
-    <t>The Company provides construction and engineering services for the oil and gas and energy sectors. It also provides process and industrial plant engineering and consultancy</t>
-  </si>
-  <si>
-    <t>The Company is an investment holding company. The principal activities of the Group are those relating to designing, manufacturing and distribution of heavy equipment parts</t>
-  </si>
-  <si>
-    <t>The Company is a hotelier and an investment holding company. The principal activities of subsidiaries, significant associates and jointly controlled entities are described in Notes Dividend paid (20,852). Distribution to perpetual capital securities holders (10,499). Net receipts from non-controlling shareholders were 76,796. The</t>
-  </si>
-  <si>
-    <t>The Company provides commercial, alternative and structured finance businesses such as factoring services, working capital, asset based financing and the provision of alternative</t>
+    <t>The consolidated financial statements relate to the Company and its subsidiaries. The principal activities of the Company are those of manufacturing and sub-assembly of precision plastic parts and components, fabrication of precision moulds and dies, trading, provision of management services and investment holding. In prior year, the Group acquired Fu Yu Supply Chain Solutions Pte. Ltd. (FYSCS).</t>
+  </si>
+  <si>
+    <t>The Company provides construction and engineering services for the oil and gas and energy sectors. It also provides process and industrial plant engineering and consultancy services.</t>
+  </si>
+  <si>
+    <t>The Company is an investment holding company. The principal activities of the Group are those relating to designing, manufacturing and distribution of heavy equipment parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company is a hotelier and an investment holding company. The principal activities of subsidiaries, significant associates and jointly controlled entities are described in Notes Dividend paid (20,852), 37, 37 and 38. Repayment of lease liabilities (9,687), 2,549, increase in deposits under pledge to bank (13,196), Redemption of perpetual capital securities (150,000) - </t>
+  </si>
+  <si>
+    <t>The Company provides commercial, alternative and structured finance businesses such as factoring services, working capital, asset based financing and the provision of alternative financial solutions.</t>
   </si>
   <si>
     <t>The Company is an investment holding. The Group is mainly involved in the trading of plastics products, providing fire protection services and mobile</t>
@@ -853,19 +862,19 @@
     <t xml:space="preserve">The Company is engaged in the business of operating department stores, operating supermarkets and to earn rental income from its investment properties. </t>
   </si>
   <si>
-    <t>Singapore Semiconductor Limited is a manufacturer of automated equipment for the semiconductor and other industries and an investment holding company.</t>
+    <t>Singapore Semiconductor Limited is a manufacturer of automated equipment for the semiconductor and other industries and an investment holding company. Its shares are listed on the Singapore</t>
   </si>
   <si>
     <t>The Company is engaged in trading in chemicals and chemical-related products and investment holding. It is listed on Catalist on the</t>
   </si>
   <si>
-    <t>The principal activities of the Company are those of a management, property investment and holding company. The Group activities include those of management and holding</t>
-  </si>
-  <si>
-    <t>The Company is engaged in mechanical engineering, provision of specialised services and investment holding. In March 2019, the Company established a</t>
-  </si>
-  <si>
-    <t>The Company designs, manufactures and supplies a range of products for building and infrastructure projects. It also supplies products for container refrigeration units</t>
+    <t>The principal activities of the Company are those of a management, property investment and holding company. The Group activities include those of management and holding companies, retailers</t>
+  </si>
+  <si>
+    <t>The Company is engaged in mechanical engineering, provision of specialised services and investment holding. In March 2019, the Company established a branch office known as Mun Siong Engineering Limited, Taiwan branch in Kaohsiung,</t>
+  </si>
+  <si>
+    <t>The Company designs, manufactures and supplies a range of products for building and infrastructure projects. It also supplies products for container refrigeration units.</t>
   </si>
   <si>
     <t>The Company designs, develops, manufactures and markets advanced material science and nano technology in industrial machinery, coating services / surface solutions and precision components.</t>
@@ -874,46 +883,46 @@
     <t>The Company is engaged in the sale, distribution, design, engineering, installation and maintenance of telecommunication systems and products in transmission networks and satellite</t>
   </si>
   <si>
-    <t>The principal activities of the Group and the Company are those relating to the design, manufacture, distribution and trading of paper, personal and business</t>
-  </si>
-  <si>
-    <t>The Company is engaged in the marketing of gifts, property investment and development and the operation of a franchise programme. The franchisees will</t>
+    <t>The principal activities of the Group and the Company are those relating to the design, manufacture, distribution and trading of paper, personal and business organising tools, as well</t>
+  </si>
+  <si>
+    <t>The Company is engaged in the marketing of gifts, property investment and development and the operation of a franchise programme. The franchisees will have the right to use the Company's name</t>
   </si>
   <si>
     <t>The Company is engaged in three business activities: owners and operators of passenger ferries, designers and builders of search-and-res</t>
   </si>
   <si>
-    <t>The Company is engaged in the operation of medical clinics, other general medical services and investment holdings. The Group and the Company are the sole proprietors of the following: Family Doctors RafflesCare, Airport Medical Centre, Corporate Wellness, Dental Surgery R</t>
-  </si>
-  <si>
-    <t>The Company provides bus and rail transport services. The operations of the North-East Mass Rapid Transit System (NEL), Sengkang LRT System and Punggol Light Rapid Transit</t>
+    <t>The Company is engaged in the operation of medical clinics, other general medical services and investment holdings. The Group and the Company are the sole proprietors of the following: Family Doctors RafflesCare, Airport Medical Centre, Corporate Wellness, Dental Surgery Raffles Healthcare Consultancy, Healthcare Institute Raffles Health Screeners, Medihelp, Optica Raffles Pharmacy, Raffles Solitaire Raffles International Medical Assistance LLP and Raffles Specialist Centre.</t>
+  </si>
+  <si>
+    <t>The Company provides bus and rail transport services. The operations of the North-East Mass Rapid Transit System (NEL), Sengkang LRT, and Punggol LRT have been transferred to the wholly-owned subsidiary, SBS Transit Rail Pte. Ltd. on 1 January 2022.</t>
   </si>
   <si>
     <t>The Company provides airframe maintenance, component overhaul services and inventory technical management. It also provides line maintenance and technical ground handling services.</t>
   </si>
   <si>
-    <t>The consolidated financial statements of the Group and statement of financial position of the Company for the year ended 31 December 2022 were authorised for issue by the Board of Directors on 24</t>
-  </si>
-  <si>
-    <t>Singapore Post Limited's financial statements were authorised for issue on 5 June 2023. The Company's principal activities include the operation and provision of postal and parcel</t>
-  </si>
-  <si>
-    <t>The principal activities of the Company are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts</t>
-  </si>
-  <si>
-    <t>The Group is principally involved in the manufacturing and sales of corrugated paper products and other packaging products. The principal activities of</t>
-  </si>
-  <si>
-    <t>The principal activities of the Company during the financial year are investment holding and those of wholesalers, retailers, suppliers, importers, exp</t>
+    <t>The consolidated financial statements of the Group and statement of financial position of the Company for the year ended 31 December 2022 were authorised for issue by the Board of Directors on 24 February 2023.</t>
+  </si>
+  <si>
+    <t>Singapore Post Limited's financial statements were authorised for issue on 5 June 2023. The Company's principal activities include the operation and provision of postal and parcel delivery services, eCommerce logistics and property.</t>
+  </si>
+  <si>
+    <t>The principal activities of the Company are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts. The Company's subsidiaries are manufacturing and trading of</t>
+  </si>
+  <si>
+    <t>The Group is principally involved in the manufacturing and sales of corrugated paper products and other packaging products. The principal activities of the subsidiaries are set out in note 7 to the financial statements. The immediate and ultimate holding company is PSC</t>
+  </si>
+  <si>
+    <t>The principal activities of the Company during the financial year are investment holding and those of wholesalers, retailers, suppliers, importers, exporters, distributors, agents</t>
   </si>
   <si>
     <t>The Company's principal activities are those of investment holding and the distribution of nutritional international network of independent active distributors across Taiwan, Singapore, Malaysia</t>
   </si>
   <si>
-    <t>China National Aviation Fuel Group Limited (CNAF) is a Company incorporated in the People s Republic of China ( PRC) The</t>
-  </si>
-  <si>
-    <t>During the year ended 31 December 2021, there were the following significant non-cash transactions: Dividends amounting to $1,287,000 were paid by a subsidiary to its non-controlling interests. In connection with the Group s disposal of its interest in HCP Chongq</t>
+    <t>China National Aviation Fuel Group Limited (CNAF) is a Company incorporated in the People s Republic of China ( PRC) CNAF's principal activities are those relating to trading and supply of jet fuel and trading of other petroleum products</t>
+  </si>
+  <si>
+    <t>During the year ended 31 December 2021, there were the following significant non-cash transactions: Dividends amounting to $1,287,000 were paid by a subsidiary to its non-controlling interests. In connection with the Group s disposal of its interest in HCP Chongqing Property Development Co., Ltd (HCP), an offshore company.</t>
   </si>
   <si>
     <t>The group holds inventories of $231,624,000 (2022: $211,199,000) as at the end of the reporting year. principal activities are in the retail and distribution of luxury timepieces and luxury accessories. The estimate of allowance for inventories is based on the age of these inventories.</t>
@@ -928,19 +937,19 @@
     <t>The Company's principal activities are manufacturing and trading of refrigeration parts, servicing of cold rooms, construction and installation of commercial and industrial cold</t>
   </si>
   <si>
-    <t>The consolidated financial statements relate to the Company and its subsidiaries. The Group acquired 100% of the ordinary shares Fu Yu Supply Chain Solutions Pte. Ltd. in prior year. FYSCS is engaged in the business in providing supply chain management services and</t>
-  </si>
-  <si>
-    <t>The Company provides building construction, engineering, procurement, construction and plant maintenance services for oil and gas and energy sectors. It also provides process</t>
-  </si>
-  <si>
-    <t>The Company is an investment holding company. principal activities of the Group are those relating to designing, manufacturing and distribution of heavy equipment parts.</t>
+    <t>The consolidated financial statements relate to the Company and its subsidiaries. The Group acquired 100% of the ordinary shares Fu Yu Supply Chain Solutions Pte. Ltd. in prior year. FYSCS is engaged in the business in providing supply chain management services.</t>
+  </si>
+  <si>
+    <t>The Company provides building construction, engineering, procurement, construction and plant maintenance services for oil and gas and energy sectors. It also provides process and industrial plant</t>
+  </si>
+  <si>
+    <t>The Company is an investment holding company. principal activities of the Group are those relating to designing, manufacturing and distribution of heavy equipment parts. The financial statements of the</t>
   </si>
   <si>
     <t xml:space="preserve"> principal activities of the Company are those of a hotelier and an investment holding company. Repayment of borrowings (228,947) (103,913) Increase in deposits under pledge to bank (13,196) - Redemption of perpetual capital securities (150,000)</t>
   </si>
   <si>
-    <t>The Company's principal activities are those relating to the provision of commercial, alternative and structured finance businesses. These include factoring services, working</t>
+    <t>The Company's principal activities are those relating to the provision of commercial, alternative and structured finance businesses. The Company offers factoring services, working capital, asset based financing and the providing of alternative and</t>
   </si>
   <si>
     <t>The Group is primarily involved in the trading of plastics products, providing fire protection services and provision of mobile radio infrastructure services. principal activity of</t>
@@ -949,19 +958,19 @@
     <t>The Company's principal activities are to carry on the business of operating department stores, operating supermarkets and to trade in general merchandise. The Company</t>
   </si>
   <si>
-    <t>The company is listed on the Singapore Exchange Securities Trading Limited ( SGX-ST ). The company's principal activities are that of designing,</t>
+    <t>The company is listed on the Singapore Exchange Securities Trading Limited ( SGX-ST ). The company's principal activities are that of designing, developing, manufacturing and distributing automated</t>
   </si>
   <si>
     <t>The Company's principal activities consist of trading in chemicals and chemical-related products and investment holding. It is listed on Catalist which is</t>
   </si>
   <si>
-    <t>Principal activities of the Group are those of management and holding companies, retailers and department store operators, property investment and developers. principal activities</t>
-  </si>
-  <si>
-    <t>The Company established a branch office known as Mun Siong Engineering Limited, Taiwan branch in Kaohsiung, Republic of China (</t>
-  </si>
-  <si>
-    <t>The Company's principal activities include the design, fabrication, supply and installation of steel and aluminium products such as gates, door frames, rail</t>
+    <t>Principal activities of the Group are those of management and holding companies, retailers and department store operators, property investment and developers. The Company's. principal</t>
+  </si>
+  <si>
+    <t>In March 2019, the Company established a branch office known as Mun Siong Engineering Limited, Taiwan branch in Kaohsiung, Republic of China ( Taiwan ). The following notes for the Company include the results of the branch office</t>
+  </si>
+  <si>
+    <t>The Company's principal activities include the design, fabrication, supply and installation of steel and aluminium products such as gates, door frames, railings, laundry racks and letter boxes.</t>
   </si>
   <si>
     <t>The Company's principal activities are that of the design, research, development, integration, manufacturing and marketing of advanced material science and nano technology</t>
@@ -970,49 +979,49 @@
     <t>The Company's principal activities are to engage in the sale, distribution, design, engineering, servicing, installation and maintenance of telecommunication systems</t>
   </si>
   <si>
-    <t>The Group and the Company are those relating to the design, manufacture, distribution and trading of paper, personal and business organising tools. The</t>
-  </si>
-  <si>
-    <t>The Company's principal activities are the marketing of gifts, property investment and development and the operation of a franchise programme. Franchisees will have</t>
+    <t>The Group and the Company are those relating to the design, manufacture, distribution and trading of paper, personal and business organising tools, as well as general trading of</t>
+  </si>
+  <si>
+    <t>The Company's principal activities are the marketing of gifts, property investment and development and the operation of a franchise programme. Franchisees will have the right to use the Company s name,</t>
   </si>
   <si>
     <t>The Company's. principal activities are to act as: (i) owners and operators of passenger ferries, (ii) designers and</t>
   </si>
   <si>
-    <t>The Group and the Company are the sole proprietor of the following: Family Doctors RafflesCare Raffles Airport Medical Centre Raffles Corporate Wellness Raffles Dental Surgery and Raffles Healthcare Consultancy. All transactions of these sole proprietorships and partnerships are</t>
-  </si>
-  <si>
-    <t>The operations of the North-East Mass Rapid Transit System ( NEL ) and the Punggol Light Rapid Transit system ( SPLRT ) were operating under the Company. These have since been transferred to</t>
+    <t>The Group and the Company are the sole proprietor of the following: Family Doctors RafflesCare Raffles Airport Medical Centre Raffles Corporate Wellness Raffles Dental Surgery and Raffles Healthcare Consultancy. All transactions of these sole proprietorships and partnerships are reflected in the financial statements of the Company.</t>
+  </si>
+  <si>
+    <t>The operations of the North-East Mass Rapid Transit System ( NEL ) and the Punggol Light Rapid Transit system ( SPLRT ) were operating under the Company. These have since been transferred to the wholly-owned subsidiary, SBS Transit Rail Pte. Ltd. on 1 January 2022.</t>
   </si>
   <si>
     <t>The Company provides airframe maintenance, component overhaul services and inventory technical management. It also provides line maintenance and technical ground handling services and investment</t>
   </si>
   <si>
-    <t>The consolidated financial statements of the Group were authorised for issue by the Board of Directors on 24 February 2023. principal activities of the Company are those of a licensed finance</t>
-  </si>
-  <si>
-    <t>Singapore Post Limited's principal activities consist of the operation and provision of postal and parcel delivery services. Its subsidiaries are principally engaged in provision of delivery services and eCommerce</t>
-  </si>
-  <si>
-    <t>The Company's principal activities are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts.</t>
-  </si>
-  <si>
-    <t>The Group is primarily involved in the manufacturing and sales of corrugated paper products and other packaging products. The immediate and ultimate holding company</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> principal activities of the Company during the financial year are investment holding and those of wholesalers, retailers, suppliers, importers, exp</t>
+    <t>The consolidated financial statements of the Group were authorised for issue by the Board of Directors on 24 February 2023. The. principal activities of the Company are those of a licensed finance company. The principal activities. of the subsidiary are those. of a nominee service company.</t>
+  </si>
+  <si>
+    <t>Singapore Post Limited's principal activities consist of the operation and provision of postal and parcel delivery services. Its subsidiaries are principally engaged in provision of delivery services and eCommerce logistics solutions. These financial statements were authorised for issue on 5 June 2023.</t>
+  </si>
+  <si>
+    <t>The Company's principal activities are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts. The principal activities of the subsidiaries are manufacturing and</t>
+  </si>
+  <si>
+    <t>The Group is primarily involved in the manufacturing and sales of corrugated paper products and other packaging products. The immediate and ultimate holding company is PSC Corporation Ltd. (formerly known as Hanwell Holdings Limited)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> principal activities of the Company during the financial year are investment holding and those of wholesalers, retailers, suppliers, importers, exporters, distributors, agents and</t>
   </si>
   <si>
     <t>The Company's principal activities are investment holding and the distribution of nutritional international network of independent active distributors across Taiwan, Singapore, Malaysia</t>
   </si>
   <si>
-    <t>The principal activities of the Group are trading and supply of jet fuel and trading of other petroleum products, and investment holding. The</t>
-  </si>
-  <si>
-    <t>The consolidated financial statements for the year ended 31 December 2021 show significant non-cash transactions. Dividends amounting to $1,287,000 were paid by a subsidiary to its non-controlling interests. In connection with the Group's disposal of its interest in HCP</t>
-  </si>
-  <si>
-    <t>The group holds inventories of $231,624,000 (2022: $211,199,000) as at the end of the reporting year. Its principal activities are in the retail and distribution of luxury timepieces and luxury accessories. The cost of inventories may not be recoverable in full if any inventories are damaged</t>
+    <t>The principal activities of the Group are trading and supply of jet fuel and trading of other petroleum products, and investment holding. The immediate and ultimate holding Company during the financial year was China National Aviation Fuel Group Limited (CNAF),</t>
+  </si>
+  <si>
+    <t>The consolidated financial statements for the year ended 31 December 2021 show significant non-cash transactions. Dividends amounting to $1,287,000 were paid by a subsidiary to its non-controlling interests. In connection with the Group's disposal of its interest in HCP Chongqing Property Development Co., Ltd.</t>
+  </si>
+  <si>
+    <t>The group holds inventories of $231,624,000 (2022: $211,199,000) as at the end of the reporting year. Its principal activities are in the retail and distribution of luxury timepieces and luxury accessories. The cost of inventories may not be recoverable in full if any inventories are damaged, or if they become obsolete.</t>
   </si>
   <si>
     <t>The Company's principal activities are the design, manufacture and distribution of digitised sound and video boards, computers and related multimedia and</t>
@@ -1027,16 +1036,16 @@
     <t>Fu Yu Supply Chain Solutions Pte. Ltd. is engaged in providing supply chain management services and commodity raw materials. The consolidated financial statements relate to the Company and its subsidiaries.</t>
   </si>
   <si>
-    <t>The principal activities of the Company are the provision of building construction, engineering, procurement, construction and plant maintenance services for oil and</t>
-  </si>
-  <si>
-    <t>The Company is an investment holding company. Its principal activities are designing, manufacturing and distribution of heavy equipment parts. The financial statements of the</t>
-  </si>
-  <si>
-    <t>The Company is a hotelier and an investment holding company. The principal activities of subsidiaries, significant associates and jointly controlled entities are described in Notes Dividend paid (20,852), Distribution to perpetual capital securities holders (10,499), Net receipts from non-controlling shareholders (76,</t>
-  </si>
-  <si>
-    <t>The Company's principal activities are the provision of commercial, alternative and structured finance businesses, factoring services, working capital, asset</t>
+    <t>The principal activities of the Company are the provision of building construction, engineering, procurement, construction and plant maintenance services for oil and gas and energy</t>
+  </si>
+  <si>
+    <t>The Company is an investment holding company. Its principal activities are designing, manufacturing and distribution of heavy equipment parts. The financial statements of the Group as at and for the</t>
+  </si>
+  <si>
+    <t>The Company is a hotelier and an investment holding company. The principal activities of subsidiaries, significant associates and jointly controlled entities are described in Notes Dividend paid (20,852), Distribution to perpetual capital securities holders (10,499) and Net receipts from non-controlling shareholders (76,796 73). Additional borrowings 642,062 313,372 in equity of the Company for the year ended December 31, 2022 were authorised for issue on March 28, 2023.</t>
+  </si>
+  <si>
+    <t>The Company's principal activities are the provision of commercial, alternative and structured finance businesses. It offers factoring services, working capital, asset based financing and alternative financial solutions to clients.</t>
   </si>
   <si>
     <t>The principal activity of the Company is that of investment holding. The Group is primarily involved in the trading of plastics products, providing</t>
@@ -1045,19 +1054,19 @@
     <t>The Company's principal activities are to carry on the business of operating department stores, operating supermarkets and trading in general merchandise. It</t>
   </si>
   <si>
-    <t>The company designs, develops, manufactures and sells automated equipment for the semiconductor and other industries and an investment holding company. The company is</t>
+    <t>The company designs, develops, manufactures and sells automated equipment for the semiconductor and other industries and an investment holding company. The company is listed on the Singapore Exchange Securities</t>
   </si>
   <si>
     <t>The Company's principal activities are trading in chemicals and chemical-related products and investment holding. It is listed on Catalist which is</t>
   </si>
   <si>
-    <t>The principal activities of the Company are those of a management, property investment and holding company. The Group's principal activities are those</t>
-  </si>
-  <si>
-    <t>Mun Siong Engineering Limited, Taiwan established a branch office in Kaohsiung, Republic of China in March 2019</t>
-  </si>
-  <si>
-    <t>The Company's principal activities include the design, fabrication, supply and installation of steel and aluminium products for building and infrastructure projects and</t>
+    <t>The principal activities of the Company are those of a management, property investment and holding company. The Group's principal activities are management and holding companies</t>
+  </si>
+  <si>
+    <t>Mun Siong Engineering Limited established a branch office in Kaohsiung, Republic of China in March 2019. Its principal activities are mechanical engineering, provision of specialised services and investment holding.</t>
+  </si>
+  <si>
+    <t>The Company's principal activities include the design, fabrication, supply and installation of steel and aluminium products for building and infrastructure projects and aluminium industrial products for container refrigeration units.</t>
   </si>
   <si>
     <t>The Company's principal activities are that of the design, research, development, integration, manufacturing and marketing of advanced material science and nano</t>
@@ -1066,41 +1075,47 @@
     <t>The Company's principal activities are to engage in the sale, distribution, design, engineering, servicing, installation and maintenance of telecommunication</t>
   </si>
   <si>
-    <t>The principal activities of the Company are the marketing of gifts, property investment and development, and the operation of a franchise programme.</t>
+    <t>The principal activities of the Group and the Company are those relating to the design, manufacture, distribution and trading of paper, personal and business organising tools,</t>
+  </si>
+  <si>
+    <t>The principal activities of the Company are the marketing of gifts, property investment and development and the operation of a franchise programme. The franchisees will have the right to use the Company</t>
   </si>
   <si>
     <t>The Company's principal activities are to act as owners and operators of passenger ferries, designers and builders of search-and-rescue</t>
   </si>
   <si>
-    <t>The principal activities of the Company are those relating to the operation of medical clinics, other general medical services and investment holdings. The Group is the sole proprietor of the following: Family Doctors, RafflesCare, Airport Medical Centre, Corporate Wellness, Dental</t>
-  </si>
-  <si>
-    <t>The operations of the North-East Mass Rapid Transit System (NEL), Sengkang LRT System (SLR), and Punggol LRT have been transferred to the wholly-</t>
+    <t>The principal activities of the Company are those relating to the operation of medical clinics, other general medical services and investment holdings. The Group is the sole proprietor of the following: Family Doctors, RafflesCare, Airport Medical Centre, Corporate Wellness, Dental Surgery, Healthcare Consultancy, Optica, Pharmacy, Medihelp, and Specialist Centre. It is also a partner of Changi Medical Services LLP and Raffles International Medical Assistance LLP.</t>
+  </si>
+  <si>
+    <t>The operations of the North-East Mass Rapid Transit System (NEL), Sengkang LRT System (SLR), and Punggol LRT have been transferred to the wholly-owned subsidiary, SBS Transit Rail Pte. Ltd. on 1 January 2022.</t>
   </si>
   <si>
     <t>The Company's principal activities are the provision of airframe maintenance, component overhaul services, inventory technical management, line maintenance and technical</t>
   </si>
   <si>
-    <t>The consolidated financial statements of the Group for the year ended 31 December 2022 were authorised for issue by the Board of Directors on 24 February 2023. The principal activities of</t>
-  </si>
-  <si>
-    <t>Singapore Post Limited's principal activities are operation and provision of postal and parcel delivery services, eCommerce logistics and property. Its subsidiaries are engaged in delivery services</t>
-  </si>
-  <si>
-    <t>The Company's principal activities are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts</t>
-  </si>
-  <si>
-    <t>The Group is primarily involved in the manufacturing and sales of corrugated paper products and other packaging products. The immediate and ultimate holding</t>
-  </si>
-  <si>
-    <t>The principal activities of the Company during the financial year are investment holding and those of wholesalers, retailers, suppliers, importers</t>
+    <t>The consolidated financial statements of the Group for the year ended 31 December 2022 were authorised for issue by the Board of Directors on 24 February 2023. The Company's principal activities are those of a licensed finance company and the subsidiary's are that of a nominee service company.</t>
+  </si>
+  <si>
+    <t>The financial statements of Singapore Post Limited were authorised for issue on 5 June 2023 in accordance with a resolution of the Board of Directors of the Company. The Company's principal activities consist of the operation and provision of postal and parcel delivery services, eCommerce logistics and property. Its subsidiaries are principally engaged in</t>
+  </si>
+  <si>
+    <t>The Company's principal activities are to carry on the business as importer, exporter and dealer of mechanical, electrical and electronic parts. The principal activities of the subsidiaries are manufacturing</t>
+  </si>
+  <si>
+    <t>The Group is primarily involved in the manufacturing and sales of corrugated paper products and other packaging products. The immediate and ultimate holding company is PSC Corporation Ltd. (formerly known as Hanwell Holdings Limited), incorporated in the Republic</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,13 +1178,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1207,7 +1230,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1241,6 +1264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1275,9 +1299,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1450,14 +1475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,2528 +1509,2792 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I6">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I8">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I9">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I12">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I13">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I14">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I15">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I16">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I17">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I18">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I19">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I20">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I21">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I22">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I23">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I24">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I25">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I26">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I27">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I29">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I30">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I31">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I32">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I33">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I34">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I36">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I37">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I38">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I39">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I40">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I41">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I44">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I45">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I46">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I47">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I48">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I49">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I50">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I51">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I52">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I53">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I54">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H55" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="I55">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H56" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I56">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I57">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I58">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H59" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I59">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I60">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I61">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I62">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H63" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I63">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I64">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I65">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I66">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I67">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I68">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I69">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I70">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I71">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I72">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73">
         <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H73" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I73">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I74">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I75">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76">
         <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I76">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77">
         <v>145</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I77">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I78">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79">
         <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H79" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I79">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I80">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I81">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I82">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H83" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I83">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H84" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="I84">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I85">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J85" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I86">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J86" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I87">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I88">
-        <v>153</v>
+        <v>23</v>
+      </c>
+      <c r="J88" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
